--- a/VerveStacks_FRA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_FRA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF12BF-1BEF-41E7-ADF6-316CEF209165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC6290-A6E4-4BFA-AFF7-F71A760EE173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0108h11,S1c0116h16,S1d0117h15,S1e0129h08,S1e0129h10,S1e0129h18,S1f0130h07,S3h0508h08,S3h0508h17,S4aH2,S5i1027h07,S5i1027h09,S5i1027h10,S5j1028h08,S6m1128h13,S6o1226h12,S6o1226h14,S1aH2,S1c0116h07,S1d0117h11,S1d0117h13,S1d0117h16,S1g0216h10,S1g0216h15,S2aH3,S6k1117h11,S6l1118h10,S6m1128h12,S6m1128h15,S6p1227h08,S6p1227h15,S1b0108h16,S1e0129h17,S1f0130h08,S1g0216h16,S1g0216h17,S3h0508h16,S4aH5,S5i1027h15,S5j1028h07,S5j1028h17,S6k1117h15,S6l1118h12,S6o1226h08,S6o1226h17,S6p1227h13,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1d0117h07,S1e0129h16,S2aH4,S2aH5,S3h0508h11,S3h0508h13,S3h0508h14,S5aH2,S5aH5,S5i1027h17,S5j1028h11,S5j1028h14,S6aH2,S6m1128h16,S6o1226h07,S1f0130h09,S1f0130h11,S1f0130h16,S3aH5,S3h0508h09,S5aH3,S5i1027h08,S5i1027h14,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0117h10,S3h0508h15,S5i1027h13,S6k1117h09,S6k1117h12,S6k1117h16,S6l1118h16,S6m1128h08,S6m1128h10,S6m1128h18,S6o1226h13,S1b0108h14,S1b0108h15,S1g0216h09,S1g0216h11,S5i1027h18,S6p1227h10,S6p1227h17,S1e0129h13,S1g0216h07,S1g0216h13,S3aH2,S5j1028h10,S5j1028h13,S5j1028h18,S6k1117h17,S6l1118h18,S6n1204h10,S6n1204h11,S6p1227h09,S6p1227h16,S1f0130h13,S3aH3,S3h0508h07,S6k1117h14,S6l1118h09,S6m1128h17,S6n1204h12,S6n1204h16,S6n1204h17,S6n1204h18,S6o1226h09,S6o1226h11,S6o1226h15,S6p1227h07,S1b0108h10,S1d0117h08,S1d0117h09,S1d0117h14,S1e0129h15,S1f0130h12,S1g0216h08,S1g0216h14,S5i1027h12,S5j1028h09,S5j1028h12,S6l1118h17,S6n1204h09,S6p1227h18,S1b0108h09,S1b0108h17,S1b0108h18,S1e0129h07,S1e0129h14,S1f0130h10,S1f0130h14,S1f0130h17,S1f0130h18,S3h0508h18,S6k1117h07,S6l1118h07,S6n1204h13,S1c0116h09,S1c0116h10,S1e0129h09,S1f0130h15,S1g0216h12,S1g0216h18,S5i1027h11,S6aH5,S6l1118h08,S6l1118h15,S6m1128h14,S6n1204h08,S1aH4,S1c0116h14,S2aH2,S3h0508h12,S6k1117h13,S6k1117h18,S6l1118h14,S6n1204h14,S6p1227h11,S1c0116h18,S1d0117h17,S1e0129h12,S5aH4,S5i1027h16,S5j1028h15,S6aH3,S6aH4,S6l1118h11,S6m1128h11,S6n1204h15,S1c0116h12,S1c0116h13,S1d0117h12,S1d0117h18,S1e0129h11,S3h0508h10,S6k1117h10,S6m1128h07,S6n1204h07,S6o1226h10,S6o1226h18,S6p1227h12,S6p1227h14,S1c0116h11,S3aH4,S4aH3,S4aH4,S5j1028h16,S6k1117h08,S6l1118h13,S6m1128h09,S6o1226h16</t>
-  </si>
-  <si>
-    <t>S1b0108h20,S1c0116h05,S1e0129h19,S1e0129h24,S2aH1,S3aH7,S5aH8,S5i1027h06,S5i1027h23,S5j1028h03,S5j1028h24,S1c0116h24,S3h0508h22,S6l1118h24,S6n1204h02,S6p1227h06,S1d0117h06,S1f0130h06,S1g0216h06,S3h0508h20,S5i1027h20,S5j1028h21,S6k1117h03,S6k1117h23,S6l1118h03,S6o1226h23,S1aH6,S1b0108h01,S1c0116h19,S1e0129h06,S1e0129h20,S1f0130h03,S1f0130h20,S5j1028h19,S6k1117h06,S6l1118h23,S6m1128h23,S6n1204h21,S6o1226h03,S6o1226h04,S6p1227h05,S1aH8,S1b0108h23,S1e0129h03,S1f0130h04,S5aH1,S5i1027h19,S6aH7,S6k1117h24,S6l1118h04,S6m1128h02,S6m1128h05,S6p1227h20,S1aH7,S1c0116h04,S1c0116h06,S1d0117h24,S1e0129h05,S1f0130h24,S1g0216h20,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6k1117h02,S6l1118h02,S6m1128h24,S6n1204h23,S6n1204h24,S6p1227h21,S1b0108h04,S1b0108h19,S1b0108h24,S1f0130h01,S1f0130h02,S1f0130h22,S1g0216h24,S2aH8,S3h0508h03,S3h0508h06,S5j1028h06,S6k1117h05,S6l1118h20,S6n1204h06,S6o1226h19,S6p1227h01,S1b0108h02,S1c0116h22,S1e0129h04,S1f0130h23,S3aH8,S3h0508h04,S5j1028h20,S6k1117h22,S6o1226h06,S6o1226h20,S1b0108h06,S1b0108h22,S1c0116h02,S1e0129h22,S1e0129h23,S3h0508h24,S4aH6,S5i1027h02,S5j1028h02,S5j1028h05,S6l1118h01,S6l1118h21,S6n1204h01,S6n1204h05,S6o1226h01,S6p1227h03,S1b0108h21,S1g0216h05,S3h0508h23,S5i1027h22,S6aH8,S6k1117h21,S6l1118h22,S6n1204h03,S6o1226h02,S6o1226h21,S6p1227h02,S1aH1,S1d0117h03,S1d0117h05,S1d0117h19,S1g0216h01,S2aH7,S5i1027h24,S5j1028h01,S6k1117h01,S6m1128h22,S6o1226h22,S1b0108h03,S1c0116h03,S1d0117h21,S1d0117h22,S1e0129h01,S1f0130h05,S1g0216h02,S1g0216h19,S4aH8,S5j1028h22,S6m1128h01,S6m1128h03,S6n1204h04,S1c0116h21,S1c0116h23,S1d0117h23,S1e0129h02,S1f0130h21,S1g0216h21,S1g0216h22,S3h0508h19,S4aH1,S5i1027h01,S6aH1,S6k1117h20,S6n1204h19,S6o1226h24,S6p1227h22,S1d0117h20,S1g0216h03,S1g0216h23,S3h0508h01,S3h0508h02,S3h0508h21,S5i1027h04,S5i1027h05,S5i1027h21,S6k1117h04,S6l1118h05,S6m1128h04,S6m1128h19,S6m1128h21,S6n1204h20,S6p1227h04,S6p1227h19,S6p1227h23,S1c0116h20,S1d0117h01,S1d0117h02,S1d0117h04,S1e0129h21,S1f0130h19,S2aH6,S3aH1,S5j1028h04,S6k1117h19,S6l1118h19,S6n1204h22,S1b0108h05,S1c0116h01,S1g0216h04,S3h0508h05,S5i1027h03,S5j1028h23,S6l1118h06,S6m1128h06,S6m1128h20,S6o1226h05,S6p1227h24</t>
+    <t>S1b0108h11,S1c0116h16,S1d0117h15,S1e0129h08,S1e0129h10,S1e0129h18,S1f0130h07,S3h0508h08,S3h0508h17,S4aH2,S5i1027h07,S5i1027h09,S5i1027h10,S5j1028h08,S6m1128h13,S6o1226h12,S6o1226h14,S1e0129h13,S1g0216h07,S1g0216h13,S3aH2,S5j1028h10,S5j1028h13,S5j1028h18,S6k1117h17,S6l1118h18,S6n1204h10,S6n1204h11,S6p1227h09,S6p1227h16,S1b0108h16,S1e0129h17,S1f0130h08,S1g0216h16,S1g0216h17,S3h0508h16,S4aH5,S5i1027h15,S5j1028h07,S5j1028h17,S6k1117h15,S6l1118h12,S6o1226h08,S6o1226h17,S6p1227h13,S1c0116h18,S1d0117h17,S1e0129h12,S5aH4,S5i1027h16,S5j1028h15,S6aH3,S6aH4,S6l1118h11,S6m1128h11,S6n1204h15,S1f0130h09,S1f0130h11,S1f0130h16,S3aH5,S3h0508h09,S5aH3,S5i1027h08,S5i1027h14,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0117h10,S3h0508h15,S5i1027h13,S6k1117h09,S6k1117h12,S6k1117h16,S6l1118h16,S6m1128h08,S6m1128h10,S6m1128h18,S6o1226h13,S1c0116h11,S3aH4,S4aH3,S4aH4,S5j1028h16,S6k1117h08,S6l1118h13,S6m1128h09,S6o1226h16,S1b0108h10,S1d0117h08,S1d0117h09,S1d0117h14,S1e0129h15,S1f0130h12,S1g0216h08,S1g0216h14,S5i1027h12,S5j1028h09,S5j1028h12,S6l1118h17,S6n1204h09,S6p1227h18,S1c0116h12,S1c0116h13,S1d0117h12,S1d0117h18,S1e0129h11,S3h0508h10,S6k1117h10,S6m1128h07,S6n1204h07,S6o1226h10,S6o1226h18,S6p1227h12,S6p1227h14,S1aH2,S1c0116h07,S1d0117h11,S1d0117h13,S1d0117h16,S1g0216h10,S1g0216h15,S2aH3,S6k1117h11,S6l1118h10,S6m1128h12,S6m1128h15,S6p1227h08,S6p1227h15,S1aH4,S1c0116h14,S2aH2,S3h0508h12,S6k1117h13,S6k1117h18,S6l1118h14,S6n1204h14,S6p1227h11,S1c0116h09,S1c0116h10,S1e0129h09,S1f0130h15,S1g0216h12,S1g0216h18,S5i1027h11,S6aH5,S6l1118h08,S6l1118h15,S6m1128h14,S6n1204h08,S1b0108h09,S1b0108h17,S1b0108h18,S1e0129h07,S1e0129h14,S1f0130h10,S1f0130h14,S1f0130h17,S1f0130h18,S3h0508h18,S6k1117h07,S6l1118h07,S6n1204h13,S1b0108h14,S1b0108h15,S1g0216h09,S1g0216h11,S5i1027h18,S6p1227h10,S6p1227h17,S1f0130h13,S3aH3,S3h0508h07,S6k1117h14,S6l1118h09,S6m1128h17,S6n1204h12,S6n1204h16,S6n1204h17,S6n1204h18,S6o1226h09,S6o1226h11,S6o1226h15,S6p1227h07,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1d0117h07,S1e0129h16,S2aH4,S2aH5,S3h0508h11,S3h0508h13,S3h0508h14,S5aH2,S5aH5,S5i1027h17,S5j1028h11,S5j1028h14,S6aH2,S6m1128h16,S6o1226h07</t>
+  </si>
+  <si>
+    <t>S1b0108h20,S1c0116h05,S1e0129h19,S1e0129h24,S2aH1,S3aH7,S5aH8,S5i1027h06,S5i1027h23,S5j1028h03,S5j1028h24,S1b0108h02,S1c0116h22,S1e0129h04,S1f0130h23,S3aH8,S3h0508h04,S5j1028h20,S6k1117h22,S6o1226h06,S6o1226h20,S1d0117h06,S1f0130h06,S1g0216h06,S3h0508h20,S5i1027h20,S5j1028h21,S6k1117h03,S6k1117h23,S6l1118h03,S6o1226h23,S1d0117h20,S1g0216h03,S1g0216h23,S3h0508h01,S3h0508h02,S3h0508h21,S5i1027h04,S5i1027h05,S5i1027h21,S6k1117h04,S6l1118h05,S6m1128h04,S6m1128h19,S6m1128h21,S6n1204h20,S6p1227h04,S6p1227h19,S6p1227h23,S1aH8,S1b0108h23,S1e0129h03,S1f0130h04,S5aH1,S5i1027h19,S6aH7,S6k1117h24,S6l1118h04,S6m1128h02,S6m1128h05,S6p1227h20,S1aH7,S1c0116h04,S1c0116h06,S1d0117h24,S1e0129h05,S1f0130h24,S1g0216h20,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6k1117h02,S6l1118h02,S6m1128h24,S6n1204h23,S6n1204h24,S6p1227h21,S1b0108h05,S1c0116h01,S1g0216h04,S3h0508h05,S5i1027h03,S5j1028h23,S6l1118h06,S6m1128h06,S6m1128h20,S6o1226h05,S6p1227h24,S1b0108h21,S1g0216h05,S3h0508h23,S5i1027h22,S6aH8,S6k1117h21,S6l1118h22,S6n1204h03,S6o1226h02,S6o1226h21,S6p1227h02,S1c0116h20,S1d0117h01,S1d0117h02,S1d0117h04,S1e0129h21,S1f0130h19,S2aH6,S3aH1,S5j1028h04,S6k1117h19,S6l1118h19,S6n1204h22,S1c0116h24,S3h0508h22,S6l1118h24,S6n1204h02,S6p1227h06,S1c0116h21,S1c0116h23,S1d0117h23,S1e0129h02,S1f0130h21,S1g0216h21,S1g0216h22,S3h0508h19,S4aH1,S5i1027h01,S6aH1,S6k1117h20,S6n1204h19,S6o1226h24,S6p1227h22,S1b0108h03,S1c0116h03,S1d0117h21,S1d0117h22,S1e0129h01,S1f0130h05,S1g0216h02,S1g0216h19,S4aH8,S5j1028h22,S6m1128h01,S6m1128h03,S6n1204h04,S1aH1,S1d0117h03,S1d0117h05,S1d0117h19,S1g0216h01,S2aH7,S5i1027h24,S5j1028h01,S6k1117h01,S6m1128h22,S6o1226h22,S1b0108h04,S1b0108h19,S1b0108h24,S1f0130h01,S1f0130h02,S1f0130h22,S1g0216h24,S2aH8,S3h0508h03,S3h0508h06,S5j1028h06,S6k1117h05,S6l1118h20,S6n1204h06,S6o1226h19,S6p1227h01,S1b0108h06,S1b0108h22,S1c0116h02,S1e0129h22,S1e0129h23,S3h0508h24,S4aH6,S5i1027h02,S5j1028h02,S5j1028h05,S6l1118h01,S6l1118h21,S6n1204h01,S6n1204h05,S6o1226h01,S6p1227h03,S1aH6,S1b0108h01,S1c0116h19,S1e0129h06,S1e0129h20,S1f0130h03,S1f0130h20,S5j1028h19,S6k1117h06,S6l1118h23,S6m1128h23,S6n1204h21,S6o1226h03,S6o1226h04,S6p1227h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0108h20,S1c0116h05,S1e0129h19,S1e0129h24,S2aH1,S3aH7,S5aH8,S5i1027h06,S5i1027h23,S5j1028h03,S5j1028h24,S1c0116h24,S3h0508h22,S6l1118h24,S6n1204h02,S6p1227h06,S1d0117h06,S1f0130h06,S1g0216h06,S3h0508h20,S5i1027h20,S5j1028h21,S6k1117h03,S6k1117h23,S6l1118h03,S6o1226h23,S1aH6,S1b0108h01,S1c0116h19,S1e0129h06,S1e0129h20,S1f0130h03,S1f0130h20,S5j1028h19,S6k1117h06,S6l1118h23,S6m1128h23,S6n1204h21,S6o1226h03,S6o1226h04,S6p1227h05,S1aH8,S1b0108h23,S1e0129h03,S1f0130h04,S5aH1,S5i1027h19,S6aH7,S6k1117h24,S6l1118h04,S6m1128h02,S6m1128h05,S6p1227h20,S1aH7,S1c0116h04,S1c0116h06,S1d0117h24,S1e0129h05,S1f0130h24,S1g0216h20,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6k1117h02,S6l1118h02,S6m1128h24,S6n1204h23,S6n1204h24,S6p1227h21,S1b0108h04,S1b0108h19,S1b0108h24,S1f0130h01,S1f0130h02,S1f0130h22,S1g0216h24,S2aH8,S3h0508h03,S3h0508h06,S5j1028h06,S6k1117h05,S6l1118h20,S6n1204h06,S6o1226h19,S6p1227h01,S1b0108h02,S1c0116h22,S1e0129h04,S1f0130h23,S3aH8,S3h0508h04,S5j1028h20,S6k1117h22,S6o1226h06,S6o1226h20,S1b0108h06,S1b0108h22,S1c0116h02,S1e0129h22,S1e0129h23,S3h0508h24,S4aH6,S5i1027h02,S5j1028h02,S5j1028h05,S6l1118h01,S6l1118h21,S6n1204h01,S6n1204h05,S6o1226h01,S6p1227h03,S1b0108h21,S1g0216h05,S3h0508h23,S5i1027h22,S6aH8,S6k1117h21,S6l1118h22,S6n1204h03,S6o1226h02,S6o1226h21,S6p1227h02,S1aH1,S1d0117h03,S1d0117h05,S1d0117h19,S1g0216h01,S2aH7,S5i1027h24,S5j1028h01,S6k1117h01,S6m1128h22,S6o1226h22,S1b0108h03,S1c0116h03,S1d0117h21,S1d0117h22,S1e0129h01,S1f0130h05,S1g0216h02,S1g0216h19,S4aH8,S5j1028h22,S6m1128h01,S6m1128h03,S6n1204h04,S1c0116h21,S1c0116h23,S1d0117h23,S1e0129h02,S1f0130h21,S1g0216h21,S1g0216h22,S3h0508h19,S4aH1,S5i1027h01,S6aH1,S6k1117h20,S6n1204h19,S6o1226h24,S6p1227h22,S1d0117h20,S1g0216h03,S1g0216h23,S3h0508h01,S3h0508h02,S3h0508h21,S5i1027h04,S5i1027h05,S5i1027h21,S6k1117h04,S6l1118h05,S6m1128h04,S6m1128h19,S6m1128h21,S6n1204h20,S6p1227h04,S6p1227h19,S6p1227h23,S1c0116h20,S1d0117h01,S1d0117h02,S1d0117h04,S1e0129h21,S1f0130h19,S2aH6,S3aH1,S5j1028h04,S6k1117h19,S6l1118h19,S6n1204h22,S1b0108h05,S1c0116h01,S1g0216h04,S3h0508h05,S5i1027h03,S5j1028h23,S6l1118h06,S6m1128h06,S6m1128h20,S6o1226h05,S6p1227h24</v>
+        <v>S1b0108h20,S1c0116h05,S1e0129h19,S1e0129h24,S2aH1,S3aH7,S5aH8,S5i1027h06,S5i1027h23,S5j1028h03,S5j1028h24,S1b0108h02,S1c0116h22,S1e0129h04,S1f0130h23,S3aH8,S3h0508h04,S5j1028h20,S6k1117h22,S6o1226h06,S6o1226h20,S1d0117h06,S1f0130h06,S1g0216h06,S3h0508h20,S5i1027h20,S5j1028h21,S6k1117h03,S6k1117h23,S6l1118h03,S6o1226h23,S1d0117h20,S1g0216h03,S1g0216h23,S3h0508h01,S3h0508h02,S3h0508h21,S5i1027h04,S5i1027h05,S5i1027h21,S6k1117h04,S6l1118h05,S6m1128h04,S6m1128h19,S6m1128h21,S6n1204h20,S6p1227h04,S6p1227h19,S6p1227h23,S1aH8,S1b0108h23,S1e0129h03,S1f0130h04,S5aH1,S5i1027h19,S6aH7,S6k1117h24,S6l1118h04,S6m1128h02,S6m1128h05,S6p1227h20,S1aH7,S1c0116h04,S1c0116h06,S1d0117h24,S1e0129h05,S1f0130h24,S1g0216h20,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6k1117h02,S6l1118h02,S6m1128h24,S6n1204h23,S6n1204h24,S6p1227h21,S1b0108h05,S1c0116h01,S1g0216h04,S3h0508h05,S5i1027h03,S5j1028h23,S6l1118h06,S6m1128h06,S6m1128h20,S6o1226h05,S6p1227h24,S1b0108h21,S1g0216h05,S3h0508h23,S5i1027h22,S6aH8,S6k1117h21,S6l1118h22,S6n1204h03,S6o1226h02,S6o1226h21,S6p1227h02,S1c0116h20,S1d0117h01,S1d0117h02,S1d0117h04,S1e0129h21,S1f0130h19,S2aH6,S3aH1,S5j1028h04,S6k1117h19,S6l1118h19,S6n1204h22,S1c0116h24,S3h0508h22,S6l1118h24,S6n1204h02,S6p1227h06,S1c0116h21,S1c0116h23,S1d0117h23,S1e0129h02,S1f0130h21,S1g0216h21,S1g0216h22,S3h0508h19,S4aH1,S5i1027h01,S6aH1,S6k1117h20,S6n1204h19,S6o1226h24,S6p1227h22,S1b0108h03,S1c0116h03,S1d0117h21,S1d0117h22,S1e0129h01,S1f0130h05,S1g0216h02,S1g0216h19,S4aH8,S5j1028h22,S6m1128h01,S6m1128h03,S6n1204h04,S1aH1,S1d0117h03,S1d0117h05,S1d0117h19,S1g0216h01,S2aH7,S5i1027h24,S5j1028h01,S6k1117h01,S6m1128h22,S6o1226h22,S1b0108h04,S1b0108h19,S1b0108h24,S1f0130h01,S1f0130h02,S1f0130h22,S1g0216h24,S2aH8,S3h0508h03,S3h0508h06,S5j1028h06,S6k1117h05,S6l1118h20,S6n1204h06,S6o1226h19,S6p1227h01,S1b0108h06,S1b0108h22,S1c0116h02,S1e0129h22,S1e0129h23,S3h0508h24,S4aH6,S5i1027h02,S5j1028h02,S5j1028h05,S6l1118h01,S6l1118h21,S6n1204h01,S6n1204h05,S6o1226h01,S6p1227h03,S1aH6,S1b0108h01,S1c0116h19,S1e0129h06,S1e0129h20,S1f0130h03,S1f0130h20,S5j1028h19,S6k1117h06,S6l1118h23,S6m1128h23,S6n1204h21,S6o1226h03,S6o1226h04,S6p1227h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0108h11,S1c0116h16,S1d0117h15,S1e0129h08,S1e0129h10,S1e0129h18,S1f0130h07,S3h0508h08,S3h0508h17,S4aH2,S5i1027h07,S5i1027h09,S5i1027h10,S5j1028h08,S6m1128h13,S6o1226h12,S6o1226h14,S1aH2,S1c0116h07,S1d0117h11,S1d0117h13,S1d0117h16,S1g0216h10,S1g0216h15,S2aH3,S6k1117h11,S6l1118h10,S6m1128h12,S6m1128h15,S6p1227h08,S6p1227h15,S1b0108h16,S1e0129h17,S1f0130h08,S1g0216h16,S1g0216h17,S3h0508h16,S4aH5,S5i1027h15,S5j1028h07,S5j1028h17,S6k1117h15,S6l1118h12,S6o1226h08,S6o1226h17,S6p1227h13,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1d0117h07,S1e0129h16,S2aH4,S2aH5,S3h0508h11,S3h0508h13,S3h0508h14,S5aH2,S5aH5,S5i1027h17,S5j1028h11,S5j1028h14,S6aH2,S6m1128h16,S6o1226h07,S1f0130h09,S1f0130h11,S1f0130h16,S3aH5,S3h0508h09,S5aH3,S5i1027h08,S5i1027h14,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0117h10,S3h0508h15,S5i1027h13,S6k1117h09,S6k1117h12,S6k1117h16,S6l1118h16,S6m1128h08,S6m1128h10,S6m1128h18,S6o1226h13,S1b0108h14,S1b0108h15,S1g0216h09,S1g0216h11,S5i1027h18,S6p1227h10,S6p1227h17,S1e0129h13,S1g0216h07,S1g0216h13,S3aH2,S5j1028h10,S5j1028h13,S5j1028h18,S6k1117h17,S6l1118h18,S6n1204h10,S6n1204h11,S6p1227h09,S6p1227h16,S1f0130h13,S3aH3,S3h0508h07,S6k1117h14,S6l1118h09,S6m1128h17,S6n1204h12,S6n1204h16,S6n1204h17,S6n1204h18,S6o1226h09,S6o1226h11,S6o1226h15,S6p1227h07,S1b0108h10,S1d0117h08,S1d0117h09,S1d0117h14,S1e0129h15,S1f0130h12,S1g0216h08,S1g0216h14,S5i1027h12,S5j1028h09,S5j1028h12,S6l1118h17,S6n1204h09,S6p1227h18,S1b0108h09,S1b0108h17,S1b0108h18,S1e0129h07,S1e0129h14,S1f0130h10,S1f0130h14,S1f0130h17,S1f0130h18,S3h0508h18,S6k1117h07,S6l1118h07,S6n1204h13,S1c0116h09,S1c0116h10,S1e0129h09,S1f0130h15,S1g0216h12,S1g0216h18,S5i1027h11,S6aH5,S6l1118h08,S6l1118h15,S6m1128h14,S6n1204h08,S1aH4,S1c0116h14,S2aH2,S3h0508h12,S6k1117h13,S6k1117h18,S6l1118h14,S6n1204h14,S6p1227h11,S1c0116h18,S1d0117h17,S1e0129h12,S5aH4,S5i1027h16,S5j1028h15,S6aH3,S6aH4,S6l1118h11,S6m1128h11,S6n1204h15,S1c0116h12,S1c0116h13,S1d0117h12,S1d0117h18,S1e0129h11,S3h0508h10,S6k1117h10,S6m1128h07,S6n1204h07,S6o1226h10,S6o1226h18,S6p1227h12,S6p1227h14,S1c0116h11,S3aH4,S4aH3,S4aH4,S5j1028h16,S6k1117h08,S6l1118h13,S6m1128h09,S6o1226h16</v>
+        <v>S1b0108h11,S1c0116h16,S1d0117h15,S1e0129h08,S1e0129h10,S1e0129h18,S1f0130h07,S3h0508h08,S3h0508h17,S4aH2,S5i1027h07,S5i1027h09,S5i1027h10,S5j1028h08,S6m1128h13,S6o1226h12,S6o1226h14,S1e0129h13,S1g0216h07,S1g0216h13,S3aH2,S5j1028h10,S5j1028h13,S5j1028h18,S6k1117h17,S6l1118h18,S6n1204h10,S6n1204h11,S6p1227h09,S6p1227h16,S1b0108h16,S1e0129h17,S1f0130h08,S1g0216h16,S1g0216h17,S3h0508h16,S4aH5,S5i1027h15,S5j1028h07,S5j1028h17,S6k1117h15,S6l1118h12,S6o1226h08,S6o1226h17,S6p1227h13,S1c0116h18,S1d0117h17,S1e0129h12,S5aH4,S5i1027h16,S5j1028h15,S6aH3,S6aH4,S6l1118h11,S6m1128h11,S6n1204h15,S1f0130h09,S1f0130h11,S1f0130h16,S3aH5,S3h0508h09,S5aH3,S5i1027h08,S5i1027h14,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0117h10,S3h0508h15,S5i1027h13,S6k1117h09,S6k1117h12,S6k1117h16,S6l1118h16,S6m1128h08,S6m1128h10,S6m1128h18,S6o1226h13,S1c0116h11,S3aH4,S4aH3,S4aH4,S5j1028h16,S6k1117h08,S6l1118h13,S6m1128h09,S6o1226h16,S1b0108h10,S1d0117h08,S1d0117h09,S1d0117h14,S1e0129h15,S1f0130h12,S1g0216h08,S1g0216h14,S5i1027h12,S5j1028h09,S5j1028h12,S6l1118h17,S6n1204h09,S6p1227h18,S1c0116h12,S1c0116h13,S1d0117h12,S1d0117h18,S1e0129h11,S3h0508h10,S6k1117h10,S6m1128h07,S6n1204h07,S6o1226h10,S6o1226h18,S6p1227h12,S6p1227h14,S1aH2,S1c0116h07,S1d0117h11,S1d0117h13,S1d0117h16,S1g0216h10,S1g0216h15,S2aH3,S6k1117h11,S6l1118h10,S6m1128h12,S6m1128h15,S6p1227h08,S6p1227h15,S1aH4,S1c0116h14,S2aH2,S3h0508h12,S6k1117h13,S6k1117h18,S6l1118h14,S6n1204h14,S6p1227h11,S1c0116h09,S1c0116h10,S1e0129h09,S1f0130h15,S1g0216h12,S1g0216h18,S5i1027h11,S6aH5,S6l1118h08,S6l1118h15,S6m1128h14,S6n1204h08,S1b0108h09,S1b0108h17,S1b0108h18,S1e0129h07,S1e0129h14,S1f0130h10,S1f0130h14,S1f0130h17,S1f0130h18,S3h0508h18,S6k1117h07,S6l1118h07,S6n1204h13,S1b0108h14,S1b0108h15,S1g0216h09,S1g0216h11,S5i1027h18,S6p1227h10,S6p1227h17,S1f0130h13,S3aH3,S3h0508h07,S6k1117h14,S6l1118h09,S6m1128h17,S6n1204h12,S6n1204h16,S6n1204h17,S6n1204h18,S6o1226h09,S6o1226h11,S6o1226h15,S6p1227h07,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1d0117h07,S1e0129h16,S2aH4,S2aH5,S3h0508h11,S3h0508h13,S3h0508h14,S5aH2,S5aH5,S5i1027h17,S5j1028h11,S5j1028h14,S6aH2,S6m1128h16,S6o1226h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E00005-B2BE-43CA-8E4D-4A21A3986461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E791D2-EC42-4D0F-A80C-BBBF028D26C9}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB9C9FD-F1AE-4FDC-85FD-789FD1DAAC37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EE3AFE-08AB-4153-9CDF-B78F4728931F}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>7.2664204990488979E-2</v>
+        <v>0.52122636231397557</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>6.2951773525791663E-2</v>
+        <v>7.2664204990488979E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.12315094550744098</v>
+        <v>0.17853865950542688</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.17853865950542691</v>
+        <v>0.24146805415687592</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.24146805415687594</v>
+        <v>0.12315094550744095</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.52122636231397568</v>
+        <v>6.2951773525791649E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137885BC-35CD-471E-AD0B-3E63A7563C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F3937-AD9E-4D07-89C1-39BA2B03647A}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
